--- a/planning/Vorlage_RACI-Chart-Excel.xlsx
+++ b/planning/Vorlage_RACI-Chart-Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Example" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>RACI Chart (Roles and Responsibilities Matrix)</t>
   </si>
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,36 +300,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -405,7 +375,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -455,15 +425,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -476,28 +437,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,10 +846,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.8984375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +863,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
@@ -910,7 +871,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="2:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
+      <c r="B3" s="22"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -925,24 +886,24 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -953,17 +914,17 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>42996</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="20">
         <v>43045</v>
       </c>
       <c r="G8" s="3"/>
@@ -977,24 +938,24 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
@@ -1062,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -1080,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -1129,68 +1090,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="56.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="36" t="s">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:G6"/>
     <mergeCell ref="D10:G11"/>
-    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
